--- a/data/BVH.xlsx
+++ b/data/BVH.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>BVH</t>
@@ -61765,7 +61765,7 @@
         <v>7.8701074442E12</v>
       </c>
       <c r="AL165" s="25" t="n">
-        <v>3.2493116663598E13</v>
+        <v>8.586621332529E12</v>
       </c>
       <c r="AM165" s="25" t="n">
         <v>7.760163046925E12</v>
@@ -61899,7 +61899,7 @@
         <v>2.618733881314E12</v>
       </c>
       <c r="AL166" s="25" t="n">
-        <v>-2.1218237295037E13</v>
+        <v>2.688258036032E12</v>
       </c>
       <c r="AM166" s="25" t="n">
         <v>2.645600017681E12</v>
@@ -63373,7 +63373,7 @@
         <v>1.362285989844E12</v>
       </c>
       <c r="AL177" s="25" t="n">
-        <v>-2.1218237295037E13</v>
+        <v>2.688258036032E12</v>
       </c>
       <c r="AM177" s="25" t="n">
         <v>2.645600017681E12</v>
@@ -75551,7 +75551,7 @@
         <v>1.063597979571E12</v>
       </c>
       <c r="AL268" s="25" t="n">
-        <v>1.250491755505E12</v>
+        <v>1.250500755505E12</v>
       </c>
       <c r="AM268" s="25" t="n">
         <v>1.34608276403E12</v>
@@ -75953,7 +75953,7 @@
         <v>1.43875945392E11</v>
       </c>
       <c r="AL271" s="25" t="n">
-        <v>3.5927225347E11</v>
+        <v>3.5928125347E11</v>
       </c>
       <c r="AM271" s="25" t="n">
         <v>8.32929749372E11</v>
@@ -76623,7 +76623,7 @@
         <v>1.59029320303E11</v>
       </c>
       <c r="AL276" s="25" t="n">
-        <v>3.33236568514E11</v>
+        <v>3.33245568514E11</v>
       </c>
       <c r="AM276" s="25" t="n">
         <v>8.45763645151E11</v>

--- a/data/BVH.xlsx
+++ b/data/BVH.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>BVH</t>

--- a/data/BVH.xlsx
+++ b/data/BVH.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>BVH</t>

--- a/data/BVH.xlsx
+++ b/data/BVH.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>BVH</t>
